--- a/Tutoring.xlsx
+++ b/Tutoring.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHAŁ\Desktop\projekt_korepetycje\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F521A-5C2C-4E58-BB97-F88F68E0DB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Y_</t>
   </si>
@@ -75,12 +76,36 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>4.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,7 +207,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -467,11 +492,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,11 +552,11 @@
       <c r="F2" s="3">
         <v>0.25</v>
       </c>
-      <c r="G2" s="3">
-        <v>64</v>
-      </c>
-      <c r="H2" s="3">
-        <v>23</v>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -553,11 +578,11 @@
       <c r="F3" s="4">
         <v>0.5</v>
       </c>
-      <c r="G3" s="4">
-        <v>66</v>
-      </c>
-      <c r="H3" s="4">
-        <v>34</v>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -579,11 +604,11 @@
       <c r="F4" s="4">
         <v>0.25</v>
       </c>
-      <c r="G4" s="3">
-        <v>64</v>
-      </c>
-      <c r="H4" s="3">
-        <v>23</v>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -605,11 +630,11 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
-        <v>70</v>
-      </c>
-      <c r="H5" s="4">
-        <v>60</v>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -631,11 +656,11 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>31</v>
-      </c>
-      <c r="H6" s="4">
-        <v>42</v>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -679,7 +704,7 @@
       <c r="H10" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H10">
     <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="E2:E1048576 D1:E1">

--- a/Tutoring.xlsx
+++ b/Tutoring.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MICHAŁ\Desktop\projekt_korepetycje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python\projekt_korepetycje\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0F521A-5C2C-4E58-BB97-F88F68E0DB9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,12 +47,6 @@
     <t>Lesson_Start_Time</t>
   </si>
   <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -100,12 +93,18 @@
   </si>
   <si>
     <t>4.2</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>monday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +206,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -492,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +508,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -535,13 +534,13 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3">
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3">
         <v>0.5</v>
@@ -553,73 +552,73 @@
         <v>0.25</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E3" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.5</v>
       </c>
-      <c r="E4" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.25</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -631,21 +630,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4">
         <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -657,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -704,8 +703,9 @@
       <c r="H10" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H10">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:H10">
+    <sortCondition ref="C2:C10" customList="monday,tuesday,wednesday,thursday,friday"/>
+    <sortCondition ref="E2:E10"/>
   </sortState>
   <conditionalFormatting sqref="E2:E1048576 D1:E1">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/Tutoring.xlsx
+++ b/Tutoring.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Python\projekt_korepetycje\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szymon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Y_</t>
   </si>
@@ -47,6 +47,12 @@
     <t>Lesson_Start_Time</t>
   </si>
   <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
     <t>John</t>
   </si>
   <si>
@@ -69,36 +75,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>monday</t>
   </si>
 </sst>
 </file>
@@ -495,7 +471,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,7 +484,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -534,13 +510,13 @@
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3">
         <v>0.5</v>
@@ -551,74 +527,74 @@
       <c r="F2" s="3">
         <v>0.25</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>19</v>
+      <c r="G2" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.5</v>
       </c>
-      <c r="E3" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>19</v>
+      <c r="G3" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="F4" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -629,22 +605,22 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>21</v>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4">
         <v>60</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -655,11 +631,11 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>22</v>
+      <c r="G6" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4.2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -704,8 +680,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:H10">
-    <sortCondition ref="C2:C10" customList="monday,tuesday,wednesday,thursday,friday"/>
-    <sortCondition ref="E2:E10"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <conditionalFormatting sqref="E2:E1048576 D1:E1">
     <cfRule type="expression" dxfId="0" priority="1">
